--- a/Talend Licensing Model.xlsx
+++ b/Talend Licensing Model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20234\OneDrive - Artha Solutions\Desktop\Talend installation files\Pre-requisites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arthadatasolns-my.sharepoint.com/personal/jorawar_singh_thinkartha_com/Documents/Documents/Sales and Marketing/Talend/Product Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{3FC679F3-879B-4DBA-9DA8-482B126B749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43F9F19-9276-4D5F-BBBD-59F0BBEF11B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talend v8.0 (Cloud)" sheetId="8" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="DB">'[1]Supported OS DB CPU'!$D$3:$D$5</definedName>
     <definedName name="Question_Type">[2]settings!$A$2:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -909,6 +910,9 @@
     <t>Talend Data Stewardship</t>
   </si>
   <si>
+    <t>11 (OpenJDK)</t>
+  </si>
+  <si>
     <t>Talend Administration Center</t>
   </si>
   <si>
@@ -973,15 +977,12 @@
   </si>
   <si>
     <t>GA</t>
-  </si>
-  <si>
-    <t>17(OpenJDK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="41">
     <font>
       <sz val="11"/>
@@ -2146,6 +2147,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,6 +2165,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2177,25 +2190,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{4FD3841F-0A8C-4FFC-A2D9-3E4DB28823A3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2553,7 +2554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -2608,7 +2609,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="settings"/>
@@ -2980,40 +2981,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="2"/>
-    <col min="2" max="2" width="33.453125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="33.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="2"/>
+    <col min="9" max="9" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="83" customFormat="1" ht="23">
+    <row r="2" spans="2:11" s="83" customFormat="1" ht="22.8">
       <c r="B2" s="82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="83" customFormat="1" ht="15.5">
+    <row r="3" spans="2:11" s="83" customFormat="1" ht="15">
       <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="83" customFormat="1"/>
-    <row r="5" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="5" spans="2:11" s="83" customFormat="1">
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="6" spans="2:11" s="83" customFormat="1">
       <c r="B6" s="14"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3057,7 +3058,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="7" spans="2:11" s="83" customFormat="1">
       <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="8" spans="2:11" s="83" customFormat="1">
       <c r="B8" s="14"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3095,7 +3096,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="9" spans="2:11" s="83" customFormat="1">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="10" spans="2:11" s="83" customFormat="1">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3135,7 +3136,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="11" spans="2:11" s="83" customFormat="1">
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3171,7 +3172,7 @@
       <c r="J12" s="113"/>
       <c r="K12" s="113"/>
     </row>
-    <row r="13" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="13" spans="2:11" s="83" customFormat="1">
       <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3245,38 +3246,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="2"/>
-    <col min="2" max="2" width="33.453125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="33.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="2"/>
+    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" s="83" customFormat="1" ht="23">
+    <row r="3" spans="2:11" s="83" customFormat="1" ht="22.8">
       <c r="B3" s="82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="83" customFormat="1" ht="15.5">
+    <row r="4" spans="2:11" s="83" customFormat="1" ht="15">
       <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="83" customFormat="1"/>
-    <row r="6" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="6" spans="2:11" s="83" customFormat="1">
       <c r="B6" s="13" t="s">
         <v>150</v>
       </c>
@@ -3302,10 +3303,10 @@
         <v>10</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="83" customFormat="1" ht="13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="83" customFormat="1">
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3315,7 +3316,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="8" spans="2:11" s="83" customFormat="1">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
@@ -3337,10 +3338,10 @@
         <v>10</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="83" customFormat="1" ht="13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="83" customFormat="1">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3350,7 +3351,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="10" spans="2:11" s="83" customFormat="1">
       <c r="B10" s="13" t="s">
         <v>149</v>
       </c>
@@ -3372,10 +3373,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="83" customFormat="1" ht="13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="83" customFormat="1">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3385,7 +3386,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="12" spans="2:11" s="83" customFormat="1">
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="83" customFormat="1">
@@ -3418,9 +3419,9 @@
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
     </row>
-    <row r="14" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="14" spans="2:11" s="83" customFormat="1">
       <c r="B14" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -3438,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="83" customFormat="1">
@@ -3451,9 +3452,9 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="16" spans="2:11" s="83" customFormat="1">
       <c r="B16" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -3471,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="83" customFormat="1">
@@ -3484,7 +3485,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:11" s="83" customFormat="1" ht="13">
+    <row r="18" spans="2:11" s="83" customFormat="1">
       <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="83" customFormat="1"/>
@@ -3557,20 +3558,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B4F508-4B71-420B-A9FC-83F58A1478DC}">
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.36328125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="20.81640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="20.77734375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23">
+    <row r="2" spans="2:8" ht="22.8">
       <c r="B2" s="86" t="s">
         <v>188</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14">
+    <row r="5" spans="2:8" ht="13.8">
       <c r="B5" s="83"/>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -3681,20 +3682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935187C9-B80D-4DBE-915B-874A10C7467A}">
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.36328125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="20.81640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="20.77734375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="23">
+    <row r="2" spans="2:9" ht="22.8">
       <c r="B2" s="86" t="s">
         <v>172</v>
       </c>
@@ -3802,17 +3803,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="24" customHeight="1">
@@ -3983,7 +3984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="57.5">
+    <row r="14" spans="2:5" ht="57">
       <c r="B14" s="23" t="s">
         <v>164</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="57.5">
+    <row r="15" spans="2:5" ht="57">
       <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
@@ -4051,27 +4052,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="27" customWidth="1"/>
     <col min="4" max="4" width="22" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -4225,7 +4226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="13">
+    <row r="15" spans="2:5">
       <c r="B15" s="28" t="s">
         <v>49</v>
       </c>
@@ -4240,8 +4241,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{16342378-8B8A-4426-A8F7-FB37A16EA2EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4249,21 +4250,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC0086B-D339-4578-8C34-85220C6E779D}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="57"/>
-    <col min="2" max="2" width="28.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="57"/>
+    <col min="1" max="1" width="8.88671875" style="57"/>
+    <col min="2" max="2" width="28.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12" thickBot="1">
@@ -4271,7 +4272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="12" thickBot="1">
+    <row r="3" spans="2:5" ht="12.6" thickBot="1">
       <c r="B3" s="59" t="s">
         <v>85</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="12.5" thickTop="1" thickBot="1">
+    <row r="4" spans="2:5" ht="12.6" thickTop="1" thickBot="1">
       <c r="B4" s="60" t="s">
         <v>89</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="12" thickBot="1">
+    <row r="21" spans="2:5" ht="12.6" thickBot="1">
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.5" thickTop="1" thickBot="1">
+    <row r="22" spans="2:5" ht="12.6" thickTop="1" thickBot="1">
       <c r="B22" s="60" t="s">
         <v>140</v>
       </c>
@@ -4550,7 +4551,7 @@
       </c>
       <c r="E29" s="60"/>
     </row>
-    <row r="30" spans="2:5" ht="23.5" thickBot="1">
+    <row r="30" spans="2:5" ht="23.4" thickBot="1">
       <c r="B30" s="60" t="s">
         <v>141</v>
       </c>
@@ -4682,13 +4683,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" ht="12">
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" ht="12">
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
@@ -4699,7 +4700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="12" thickBot="1">
+    <row r="44" spans="2:5" ht="12.6" thickBot="1">
       <c r="B44" s="59" t="s">
         <v>128</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="12.5" thickTop="1" thickBot="1">
+    <row r="45" spans="2:5" ht="12.6" thickTop="1" thickBot="1">
       <c r="B45" s="60" t="s">
         <v>144</v>
       </c>
@@ -4834,8 +4835,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{0FA4FB6D-467D-433F-8D32-76653AF277EA}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{A7D1CE65-9D3E-41BA-9238-3CFF045A7502}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4843,31 +4844,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F15FDD-9945-4168-944F-18078ADB18D5}">
   <dimension ref="A2:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="37.453125" style="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="92"/>
+    <col min="1" max="1" width="37.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="92"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-    </row>
-    <row r="3" spans="1:4" ht="13">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="93" t="s">
         <v>205</v>
       </c>
@@ -4882,7 +4883,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="127" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -4896,7 +4897,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="123"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="95"/>
       <c r="C5" s="95">
         <v>7</v>
@@ -4906,7 +4907,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="123"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="95" t="s">
         <v>207</v>
       </c>
@@ -4918,7 +4919,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="123"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="95" t="s">
         <v>95</v>
       </c>
@@ -4930,7 +4931,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="123"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="95" t="s">
         <v>90</v>
       </c>
@@ -4942,7 +4943,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="123"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="95" t="s">
         <v>96</v>
       </c>
@@ -4954,7 +4955,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="123"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="95" t="s">
         <v>208</v>
       </c>
@@ -4966,7 +4967,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="128" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="95" t="s">
@@ -4980,7 +4981,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="124"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="95"/>
       <c r="C12" s="95">
         <v>10</v>
@@ -4990,7 +4991,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="124"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="95" t="s">
         <v>100</v>
       </c>
@@ -5002,7 +5003,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="124"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95">
         <v>2019</v>
@@ -5012,7 +5013,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="124"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95">
         <v>2016</v>
@@ -5022,7 +5023,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="124"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95">
         <v>2012</v>
@@ -5037,23 +5038,23 @@
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
     </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="125" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="117" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-    </row>
-    <row r="20" spans="1:4" ht="13">
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="100" t="s">
         <v>212</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>214</v>
       </c>
       <c r="B21" s="103">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103" t="s">
@@ -5082,30 +5083,30 @@
         <v>215</v>
       </c>
       <c r="B22" s="103">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="103"/>
       <c r="D22" s="103" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="117" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="117" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
-    </row>
-    <row r="26" spans="1:4" ht="13">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="100" t="s">
         <v>218</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>220</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C27" s="103">
         <v>19999</v>
@@ -5131,7 +5132,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="103"/>
       <c r="C28" s="103">
@@ -5141,7 +5142,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" s="103"/>
       <c r="C29" s="103">
@@ -5151,7 +5152,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" s="103"/>
       <c r="C30" s="103">
@@ -5165,17 +5166,17 @@
       <c r="C31" s="106"/>
       <c r="D31" s="106"/>
     </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-    </row>
-    <row r="33" spans="1:4" ht="13">
+    <row r="32" spans="1:4">
+      <c r="A32" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B33" s="101" t="s">
         <v>213</v>
@@ -5187,7 +5188,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="103">
@@ -5197,7 +5198,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="108">
@@ -5207,7 +5208,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="107"/>
       <c r="C36" s="108">
@@ -5217,7 +5218,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="109">
@@ -5228,30 +5229,30 @@
     <row r="38" spans="1:4">
       <c r="A38" s="110"/>
     </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="131" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="117" t="s">
         <v>122</v>
       </c>
       <c r="B41" s="108">
         <v>13</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="117" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="108" t="s">
@@ -5259,53 +5260,53 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="130"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="108">
         <v>12</v>
       </c>
-      <c r="C42" s="130"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="130"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="108">
         <v>11</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="130"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="108">
         <v>10</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="129"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="108">
         <v>9.6</v>
       </c>
-      <c r="C45" s="129"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="128" t="s">
-        <v>231</v>
+      <c r="A46" s="117" t="s">
+        <v>232</v>
       </c>
       <c r="B46" s="108">
         <v>8</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="117" t="s">
         <v>109</v>
       </c>
       <c r="D46" s="108" t="s">
@@ -5313,51 +5314,51 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="129"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="108">
         <v>5.7</v>
       </c>
-      <c r="C47" s="129"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="128" t="s">
-        <v>232</v>
+      <c r="A48" s="117" t="s">
+        <v>233</v>
       </c>
       <c r="B48" s="108">
         <v>2019</v>
       </c>
       <c r="C48" s="108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D48" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="130"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="108"/>
       <c r="C49" s="108"/>
       <c r="D49" s="108"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="130"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="108"/>
       <c r="C50" s="108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D50" s="108"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="130"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="108"/>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="130"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="108">
         <v>2017</v>
       </c>
@@ -5369,7 +5370,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="130"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="108">
         <v>2016</v>
       </c>
@@ -5379,7 +5380,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="129"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="108">
         <v>2014</v>
       </c>
@@ -5392,26 +5393,32 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A48:A54"/>
@@ -5421,15 +5428,9 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="C41:C45"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" display="https://www.azul.com/downloads/zulu/"/>
+    <hyperlink ref="A21" r:id="rId1" display="https://www.azul.com/downloads/zulu/" xr:uid="{E17520E6-272E-467E-860F-B438B4911BBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
